--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -86,9 +89,6 @@
   </si>
   <si>
     <t>Epha1</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>M1</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H2">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J2">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N2">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P2">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q2">
-        <v>7.337033157755808</v>
+        <v>1.899480376318222</v>
       </c>
       <c r="R2">
-        <v>7.337033157755808</v>
+        <v>17.095323386864</v>
       </c>
       <c r="S2">
-        <v>0.2060160255986466</v>
+        <v>0.03798295100198433</v>
       </c>
       <c r="T2">
-        <v>0.2060160255986466</v>
+        <v>0.03798295100198434</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H3">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J3">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N3">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P3">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q3">
-        <v>13.08561998066356</v>
+        <v>3.307225554799111</v>
       </c>
       <c r="R3">
-        <v>13.08561998066356</v>
+        <v>29.765029993192</v>
       </c>
       <c r="S3">
-        <v>0.3674301809663797</v>
+        <v>0.06613292128025655</v>
       </c>
       <c r="T3">
-        <v>0.3674301809663797</v>
+        <v>0.06613292128025658</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H4">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I4">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J4">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N4">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P4">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q4">
-        <v>3.219183086697639</v>
+        <v>0.7619846808835554</v>
       </c>
       <c r="R4">
-        <v>3.219183086697639</v>
+        <v>6.857862127951998</v>
       </c>
       <c r="S4">
-        <v>0.09039121003491361</v>
+        <v>0.01523702332443259</v>
       </c>
       <c r="T4">
-        <v>0.09039121003491361</v>
+        <v>0.0152370233244326</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H5">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I5">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J5">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N5">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P5">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q5">
-        <v>5.05708593305804</v>
+        <v>1.360216704025778</v>
       </c>
       <c r="R5">
-        <v>5.05708593305804</v>
+        <v>12.241950336232</v>
       </c>
       <c r="S5">
-        <v>0.1419975516858793</v>
+        <v>0.02719956734758929</v>
       </c>
       <c r="T5">
-        <v>0.1419975516858793</v>
+        <v>0.0271995673475893</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>1.81559304202683</v>
+        <v>0.4223226666666666</v>
       </c>
       <c r="H6">
-        <v>1.81559304202683</v>
+        <v>1.266968</v>
       </c>
       <c r="I6">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089268</v>
       </c>
       <c r="J6">
-        <v>0.9022270707183812</v>
+        <v>0.1676547342089269</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.89078618421431</v>
+        <v>2.498796666666667</v>
       </c>
       <c r="N6">
-        <v>1.89078618421431</v>
+        <v>7.49639</v>
       </c>
       <c r="O6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="P6">
-        <v>0.1068379630371892</v>
+        <v>0.1258674343688201</v>
       </c>
       <c r="Q6">
-        <v>3.432898240019961</v>
+        <v>1.055298471724444</v>
       </c>
       <c r="R6">
-        <v>3.432898240019961</v>
+        <v>9.497686245519999</v>
       </c>
       <c r="S6">
-        <v>0.09639210243256192</v>
+        <v>0.02110227125466408</v>
       </c>
       <c r="T6">
-        <v>0.09639210243256192</v>
+        <v>0.02110227125466408</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H7">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I7">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J7">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.04112209505118</v>
+        <v>4.497699333333333</v>
       </c>
       <c r="N7">
-        <v>4.04112209505118</v>
+        <v>13.493098</v>
       </c>
       <c r="O7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="P7">
-        <v>0.228341658419327</v>
+        <v>0.2265545985397048</v>
       </c>
       <c r="Q7">
-        <v>0.7951027489110529</v>
+        <v>8.433124781442444</v>
       </c>
       <c r="R7">
-        <v>0.7951027489110529</v>
+        <v>75.898123032982</v>
       </c>
       <c r="S7">
-        <v>0.02232563282068044</v>
+        <v>0.1686329426514094</v>
       </c>
       <c r="T7">
-        <v>0.02232563282068044</v>
+        <v>0.1686329426514094</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H8">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I8">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J8">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>7.20735301235539</v>
+        <v>7.831039666666666</v>
       </c>
       <c r="N8">
-        <v>7.20735301235539</v>
+        <v>23.493119</v>
       </c>
       <c r="O8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859676</v>
       </c>
       <c r="P8">
-        <v>0.4072480120484751</v>
+        <v>0.3944590147859677</v>
       </c>
       <c r="Q8">
-        <v>1.418068065677573</v>
+        <v>14.68309235079122</v>
       </c>
       <c r="R8">
-        <v>1.418068065677573</v>
+        <v>132.147831157121</v>
       </c>
       <c r="S8">
-        <v>0.03981783108209545</v>
+        <v>0.2936103917002408</v>
       </c>
       <c r="T8">
-        <v>0.03981783108209545</v>
+        <v>0.2936103917002409</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H9">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I9">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J9">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.77307524989406</v>
+        <v>1.804271333333333</v>
       </c>
       <c r="N9">
-        <v>1.77307524989406</v>
+        <v>5.412813999999999</v>
       </c>
       <c r="O9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="P9">
-        <v>0.100186763364284</v>
+        <v>0.09088334663693197</v>
       </c>
       <c r="Q9">
-        <v>0.3488578102956488</v>
+        <v>3.382984091625111</v>
       </c>
       <c r="R9">
-        <v>0.3488578102956488</v>
+        <v>30.446856824626</v>
       </c>
       <c r="S9">
-        <v>0.009795553329370432</v>
+        <v>0.06764782652914443</v>
       </c>
       <c r="T9">
-        <v>0.009795553329370432</v>
+        <v>0.06764782652914443</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.196752963708953</v>
+        <v>1.874986333333333</v>
       </c>
       <c r="H10">
-        <v>0.196752963708953</v>
+        <v>5.624959</v>
       </c>
       <c r="I10">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435028</v>
       </c>
       <c r="J10">
-        <v>0.09777292928161892</v>
+        <v>0.7443368783435029</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.78536313810312</v>
+        <v>3.220799666666667</v>
       </c>
       <c r="N10">
-        <v>2.78536313810312</v>
+        <v>9.662399000000001</v>
       </c>
       <c r="O10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="P10">
-        <v>0.1573856031307246</v>
+        <v>0.1622356056685755</v>
       </c>
       <c r="Q10">
-        <v>0.5480284524274586</v>
+        <v>6.038955357404556</v>
       </c>
       <c r="R10">
-        <v>0.5480284524274586</v>
+        <v>54.35059821664101</v>
       </c>
       <c r="S10">
-        <v>0.01538805144484528</v>
+        <v>0.120757944279515</v>
       </c>
       <c r="T10">
-        <v>0.01538805144484528</v>
+        <v>0.120757944279515</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,371 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.874986333333333</v>
+      </c>
+      <c r="H11">
+        <v>5.624959</v>
+      </c>
+      <c r="I11">
+        <v>0.7443368783435028</v>
+      </c>
+      <c r="J11">
+        <v>0.7443368783435029</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N11">
+        <v>7.49639</v>
+      </c>
+      <c r="O11">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P11">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q11">
+        <v>4.685209599778889</v>
+      </c>
+      <c r="R11">
+        <v>42.16688639801</v>
+      </c>
+      <c r="S11">
+        <v>0.09368777318319327</v>
+      </c>
+      <c r="T11">
+        <v>0.09368777318319328</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.66508</v>
+      </c>
+      <c r="I12">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J12">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>4.497699333333333</v>
+      </c>
+      <c r="N12">
+        <v>13.493098</v>
+      </c>
+      <c r="O12">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="P12">
+        <v>0.2265545985397048</v>
+      </c>
+      <c r="Q12">
+        <v>0.9971099575377778</v>
+      </c>
+      <c r="R12">
+        <v>8.973989617839999</v>
+      </c>
+      <c r="S12">
+        <v>0.01993870488631105</v>
+      </c>
+      <c r="T12">
+        <v>0.01993870488631106</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.196752963708953</v>
-      </c>
-      <c r="H11">
-        <v>0.196752963708953</v>
-      </c>
-      <c r="I11">
-        <v>0.09777292928161892</v>
-      </c>
-      <c r="J11">
-        <v>0.09777292928161892</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>1.89078618421431</v>
-      </c>
-      <c r="N11">
-        <v>1.89078618421431</v>
-      </c>
-      <c r="O11">
-        <v>0.1068379630371892</v>
-      </c>
-      <c r="P11">
-        <v>0.1068379630371892</v>
-      </c>
-      <c r="Q11">
-        <v>0.3720177854841079</v>
-      </c>
-      <c r="R11">
-        <v>0.3720177854841079</v>
-      </c>
-      <c r="S11">
-        <v>0.01044586060462732</v>
-      </c>
-      <c r="T11">
-        <v>0.01044586060462732</v>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.66508</v>
+      </c>
+      <c r="I13">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J13">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>7.831039666666666</v>
+      </c>
+      <c r="N13">
+        <v>23.493119</v>
+      </c>
+      <c r="O13">
+        <v>0.3944590147859676</v>
+      </c>
+      <c r="P13">
+        <v>0.3944590147859677</v>
+      </c>
+      <c r="Q13">
+        <v>1.736089287168889</v>
+      </c>
+      <c r="R13">
+        <v>15.62480358452</v>
+      </c>
+      <c r="S13">
+        <v>0.03471570180547025</v>
+      </c>
+      <c r="T13">
+        <v>0.03471570180547026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.66508</v>
+      </c>
+      <c r="I14">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J14">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.804271333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.412813999999999</v>
+      </c>
+      <c r="O14">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="P14">
+        <v>0.09088334663693197</v>
+      </c>
+      <c r="Q14">
+        <v>0.3999949261244444</v>
+      </c>
+      <c r="R14">
+        <v>3.59995433512</v>
+      </c>
+      <c r="S14">
+        <v>0.007998496783354932</v>
+      </c>
+      <c r="T14">
+        <v>0.007998496783354934</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.66508</v>
+      </c>
+      <c r="I15">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J15">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>3.220799666666667</v>
+      </c>
+      <c r="N15">
+        <v>9.662399000000001</v>
+      </c>
+      <c r="O15">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="P15">
+        <v>0.1622356056685755</v>
+      </c>
+      <c r="Q15">
+        <v>0.7140298141022222</v>
+      </c>
+      <c r="R15">
+        <v>6.426268326920001</v>
+      </c>
+      <c r="S15">
+        <v>0.0142780940414712</v>
+      </c>
+      <c r="T15">
+        <v>0.01427809404147121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.2216933333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.66508</v>
+      </c>
+      <c r="I16">
+        <v>0.08800838744757017</v>
+      </c>
+      <c r="J16">
+        <v>0.08800838744757018</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>2.498796666666667</v>
+      </c>
+      <c r="N16">
+        <v>7.49639</v>
+      </c>
+      <c r="O16">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="P16">
+        <v>0.1258674343688201</v>
+      </c>
+      <c r="Q16">
+        <v>0.5539665623555555</v>
+      </c>
+      <c r="R16">
+        <v>4.9856990612</v>
+      </c>
+      <c r="S16">
+        <v>0.01107738993096273</v>
+      </c>
+      <c r="T16">
+        <v>0.01107738993096273</v>
       </c>
     </row>
   </sheetData>
